--- a/biology/Zoologie/Aigrette_dimorphe/Aigrette_dimorphe.xlsx
+++ b/biology/Zoologie/Aigrette_dimorphe/Aigrette_dimorphe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Egretta dimorpha
 L'Aigrette dimorphe (Egretta dimorpha) est une espèce d'oiseaux appartenant à la famille des Ardeidae.
@@ -512,16 +524,117 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Habitat
-L'aigrette se rencontre dans toutes les zones humides aux eaux peu profondes avec une prédilection pour les eaux saumâtres.
-Reproduction
-Régime alimentaire
-L'Aigrette dimporhe se nourrit de petits poissons, de grenouilles, d'insectes aquatiques et de petits crustacés.
-Répartition
-Elle est présente en Afrique orientale (depuis le sud du Kenya jusqu'au nord du Mozambique), et à Madagascar.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aigrette_dimorphe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aigrette_dimorphe</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aigrette se rencontre dans toutes les zones humides aux eaux peu profondes avec une prédilection pour les eaux saumâtres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aigrette_dimorphe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aigrette_dimorphe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Régime alimentaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aigrette dimporhe se nourrit de petits poissons, de grenouilles, d'insectes aquatiques et de petits crustacés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aigrette_dimorphe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aigrette_dimorphe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est présente en Afrique orientale (depuis le sud du Kenya jusqu'au nord du Mozambique), et à Madagascar.
 </t>
         </is>
       </c>
